--- a/seminar_1.xlsx
+++ b/seminar_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc201\Desktop\GB\HW\FinancialMathematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F941AC-A209-44AF-8303-6C3BEC50BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D1A322-C314-45A8-85D8-E6D077EA73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EA6B04E0-5A2E-431E-BF37-AFC215A5F138}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ДЗ по "Финансовая математика (семинары)"</t>
   </si>
@@ -106,24 +106,7 @@
     </r>
   </si>
   <si>
-    <t>Баланс</t>
-  </si>
-  <si>
-    <t>Погашение ОД</t>
-  </si>
-  <si>
-    <t>Погашение
-процентов</t>
-  </si>
-  <si>
-    <t>Итоговый платеж</t>
-  </si>
-  <si>
     <t>Переплата</t>
-  </si>
-  <si>
-    <t>Переплата
-способ 2</t>
   </si>
   <si>
     <r>
@@ -194,6 +177,12 @@
       <t xml:space="preserve"> выгодней под 11% годовых с ежемесячной капитализацией</t>
     </r>
   </si>
+  <si>
+    <t>Кредит</t>
+  </si>
+  <si>
+    <t>месяцев</t>
+  </si>
 </sst>
 </file>
 
@@ -203,9 +192,9 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.000000000"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -280,13 +269,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,9 +280,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD96B66-399F-4B15-9B44-AF54B68A1622}">
   <dimension ref="B1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,45 +645,45 @@
       <c r="C3" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -708,7 +697,7 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>FV(C12,C11,0,-C9)</f>
         <v>49.999947216577532</v>
       </c>
@@ -725,57 +714,57 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0.30766025593574298</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
@@ -790,541 +779,233 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>FV(C21,C20,-C23)</f>
         <v>350000</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>3089.6016855452954</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>7</v>
-      </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>11</v>
-      </c>
-      <c r="O30">
-        <v>12</v>
-      </c>
-      <c r="P30">
-        <v>13</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-      <c r="R30">
-        <v>15</v>
-      </c>
-      <c r="S30">
-        <v>16</v>
-      </c>
-      <c r="T30">
-        <v>17</v>
-      </c>
-      <c r="U30">
-        <v>18</v>
-      </c>
-      <c r="V30">
-        <v>19</v>
-      </c>
-      <c r="W30">
-        <v>20</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="16">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15">
         <v>8000000</v>
       </c>
-      <c r="D31" s="16">
-        <f>C31-D32</f>
-        <v>7860323.0018196339</v>
-      </c>
-      <c r="E31" s="16">
-        <f t="shared" ref="E31:W31" si="0">D31-E32</f>
-        <v>7706678.3038212312</v>
-      </c>
-      <c r="F31" s="16">
-        <f t="shared" si="0"/>
-        <v>7537669.1360229878</v>
-      </c>
-      <c r="G31" s="16">
-        <f t="shared" si="0"/>
-        <v>7351759.0514449198</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="0"/>
-        <v>7147257.9584090458</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" si="0"/>
-        <v>6922306.7560695838</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="0"/>
-        <v>6674860.4334961763</v>
-      </c>
-      <c r="K31" s="16">
-        <f t="shared" si="0"/>
-        <v>6402669.4786654273</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="0"/>
-        <v>6103259.4283516034</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="0"/>
-        <v>5773908.3730063979</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="0"/>
-        <v>5411622.2121266713</v>
-      </c>
-      <c r="O31" s="16">
-        <f t="shared" si="0"/>
-        <v>5013107.4351589717</v>
-      </c>
-      <c r="P31" s="16">
-        <f t="shared" si="0"/>
-        <v>4574741.1804945022</v>
-      </c>
-      <c r="Q31" s="16">
-        <f t="shared" si="0"/>
-        <v>4092538.3003635863</v>
-      </c>
-      <c r="R31" s="16">
-        <f t="shared" si="0"/>
-        <v>3562115.1322195786</v>
-      </c>
-      <c r="S31" s="16">
-        <f t="shared" si="0"/>
-        <v>2978649.6472611702</v>
-      </c>
-      <c r="T31" s="16">
-        <f t="shared" si="0"/>
-        <v>2336837.6138069211</v>
-      </c>
-      <c r="U31" s="16">
-        <f t="shared" si="0"/>
-        <v>1630844.3770072469</v>
-      </c>
-      <c r="V31" s="16">
-        <f t="shared" si="0"/>
-        <v>854251.81652760529</v>
-      </c>
-      <c r="W31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="15">
+        <f>-PMT(C32/12,C33,$C$31)*C33-$C$31</f>
+        <v>10528415.585420951</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15">
-        <f>D34-D33</f>
-        <v>139676.99818036635</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" ref="E32:V32" si="1">E34-E33</f>
-        <v>153644.69799840287</v>
-      </c>
-      <c r="F32" s="15">
-        <f t="shared" si="1"/>
-        <v>169009.16779824323</v>
-      </c>
-      <c r="G32" s="15">
-        <f t="shared" si="1"/>
-        <v>185910.08457806753</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="1"/>
-        <v>204501.09303587431</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="1"/>
-        <v>224951.20233946177</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="1"/>
-        <v>247446.3225734079</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="1"/>
-        <v>272190.95483074873</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="1"/>
-        <v>299410.05031382362</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" si="1"/>
-        <v>329351.05534520594</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="1"/>
-        <v>362286.16087972652</v>
-      </c>
-      <c r="O32" s="15">
-        <f t="shared" si="1"/>
-        <v>398514.77696769917</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="1"/>
-        <v>438366.25466446916</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" si="1"/>
-        <v>482202.88013091614</v>
-      </c>
-      <c r="R32" s="15">
-        <f t="shared" si="1"/>
-        <v>530423.16814400768</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" si="1"/>
-        <v>583465.4849584084</v>
-      </c>
-      <c r="T32" s="15">
-        <f t="shared" si="1"/>
-        <v>641812.03345424938</v>
-      </c>
-      <c r="U32" s="15">
-        <f t="shared" si="1"/>
-        <v>705993.23679967423</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" si="1"/>
-        <v>776592.56047964166</v>
-      </c>
-      <c r="W32" s="15">
-        <f>W34-W33</f>
-        <v>854251.81652760576</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="16">
-        <f>C31*10%</f>
-        <v>800000</v>
-      </c>
-      <c r="E33" s="16">
-        <f t="shared" ref="E33:W33" si="2">D31*10%</f>
-        <v>786032.30018196348</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="2"/>
-        <v>770667.83038212312</v>
-      </c>
-      <c r="G33" s="16">
-        <f t="shared" si="2"/>
-        <v>753766.91360229882</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="2"/>
-        <v>735175.90514449205</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="2"/>
-        <v>714725.79584090458</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="2"/>
-        <v>692230.67560695845</v>
-      </c>
-      <c r="K33" s="16">
-        <f t="shared" si="2"/>
-        <v>667486.04334961763</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="2"/>
-        <v>640266.94786654273</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="2"/>
-        <v>610325.94283516041</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="2"/>
-        <v>577390.83730063983</v>
-      </c>
-      <c r="O33" s="16">
-        <f t="shared" si="2"/>
-        <v>541162.22121266718</v>
-      </c>
-      <c r="P33" s="16">
-        <f t="shared" si="2"/>
-        <v>501310.74351589719</v>
-      </c>
-      <c r="Q33" s="16">
-        <f t="shared" si="2"/>
-        <v>457474.11804945022</v>
-      </c>
-      <c r="R33" s="16">
-        <f t="shared" si="2"/>
-        <v>409253.83003635867</v>
-      </c>
-      <c r="S33" s="16">
-        <f t="shared" si="2"/>
-        <v>356211.5132219579</v>
-      </c>
-      <c r="T33" s="16">
-        <f t="shared" si="2"/>
-        <v>297864.96472611703</v>
-      </c>
-      <c r="U33" s="16">
-        <f t="shared" si="2"/>
-        <v>233683.76138069213</v>
-      </c>
-      <c r="V33" s="16">
-        <f t="shared" si="2"/>
-        <v>163084.43770072469</v>
-      </c>
-      <c r="W33" s="16">
-        <f t="shared" si="2"/>
-        <v>85425.181652760541</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="15">
-        <f>-PMT(10%,20,$C$31)</f>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" ref="E34:W34" si="3">-PMT(10%,20,$C$31)</f>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="N34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="R34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="T34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="U34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="V34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-      <c r="W34" s="15">
-        <f t="shared" si="3"/>
-        <v>939676.99818036635</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="16">
-        <f>SUM(D33:W33)</f>
-        <v>10793539.963607328</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="16">
-        <f>-PMT(10%,20,$C$31)*20-$C$31</f>
-        <v>10793539.963607326</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D46">
@@ -1339,7 +1020,7 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>2000</v>
@@ -1353,101 +1034,101 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <f>D47/((1+$D$49)^D46)</f>
         <v>1801.8018018018017</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:F48" si="4">E47/((1+$D$49)^E46)</f>
+        <f t="shared" ref="E48:F48" si="0">E47/((1+$D$49)^E46)</f>
         <v>4058.1121662202736</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7311.9138130095016</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="C49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6">
         <v>0.11</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="16">
+        <v>17</v>
+      </c>
+      <c r="D51" s="15">
         <f>SUM(D48:F48)</f>
         <v>13171.827781031578</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="B54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C58" s="11"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="7">
         <f>-FV(11%/12,12,0,C57)</f>
         <v>1115.7188361952149</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="7">
         <f>-FV(11.5%,1,0,C57)</f>
         <v>1115</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C61" s="8"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
